--- a/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/Central Selkirks Caribou_Aerial_Population_Total_Count_Recuit_Comp_Survey_1.0.xlsx
+++ b/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/Central Selkirks Caribou_Aerial_Population_Total_Count_Recuit_Comp_Survey_1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anissa/Desktop/BHBC-1413/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anissa/DevelopmentProjects/biohubbc-utils/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6683CEB-25D2-C048-95AF-47AA58D90A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89330664-A8C4-D647-B196-D2857758A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1600" windowWidth="24260" windowHeight="13600" tabRatio="672" activeTab="3" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
+    <workbookView xWindow="-21720" yWindow="-20580" windowWidth="32880" windowHeight="15880" tabRatio="672" activeTab="1" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Effort &amp; Site Conditions" sheetId="2" r:id="rId1"/>
@@ -729,14 +729,71 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A unique identification label assigned to track a group of animals detected during the course of a Block Visit, e.g., G25. 
-Must be filled out if marked animals were observed in the group as this field will be the key ID field linking the information on the "Marked Animals" tab
-INSTRUCTIONS: Labels should contain numbers and/or letters, start with a character other than zero, and contain no hyphens. For example, 'AM330' or 'D30' will work well with Excel.
-Avoid Labels that do not contain letters, begin with zero, or contain hyphens. For example, avoid '003' or '2-5', because Excel may automatically reformat such data.</t>
+          <t xml:space="preserve">A unique identification label assigned to track a group of animals detected during the course of a Block Visit, e.g., G25. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Must be filled out if marked animals were observed in the group as this field will be the key ID field linking the information on the "Marked Animals" tab
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">INSTRUCTIONS: Labels should contain numbers and/or letters, start with a character other than zero, and contain no hyphens. For example, 'AM330' or 'D30' will work well with Excel.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Avoid Labels that do not contain letters, begin with zero, or contain hyphens. For example, avoid '003' or '2-5', because Excel may automatically reformat such data.</t>
         </r>
       </text>
     </comment>
@@ -745,7 +802,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -787,7 +844,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -886,7 +943,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1265,6 +1322,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="G3" authorId="2" shapeId="0" xr:uid="{7A3E8DFF-6241-DA49-BC5C-6D698A8CB423}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use these UTM columns for UTMs of individual observations only. Double-click on the column name to see more information.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{B9FBE9DB-12FF-3540-8095-FEEB92320DF0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use these UTM columns for UTMs of individual observations only. Double-click on the column name to see more information.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1317,14 +1400,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The date of Observation.
-INSTRUCTIONS: The date may not span days.
-For clarity,  a reliable format is dd-mmm-yy  (e.g.  '7-Jun-08'). When entering the date into Excel ensure that Excel interprets it as correct date information.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The date of Observation.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">INSTRUCTIONS: The date may not span days.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For clarity,  a reliable format is dd-mmm-yy  (e.g.  '7-Jun-08'). When entering the date into Excel ensure that Excel interprets it as correct date information.</t>
         </r>
       </text>
     </comment>
@@ -2009,7 +2129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="477">
   <si>
     <t>Date</t>
   </si>
@@ -3388,24 +3508,6 @@
     <t>West Kootenays still</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>9-12</t>
-  </si>
-  <si>
-    <t>13-17</t>
-  </si>
-  <si>
-    <t>18-20</t>
-  </si>
-  <si>
-    <t>Looked Health</t>
-  </si>
-  <si>
     <t>3636</t>
   </si>
   <si>
@@ -3421,9 +3523,6 @@
     <t>05</t>
   </si>
   <si>
-    <t>Collar to tight</t>
-  </si>
-  <si>
     <t>M-ALAM</t>
   </si>
   <si>
@@ -3440,6 +3539,27 @@
   </si>
   <si>
     <t>Immature Males</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>some_photos</t>
+  </si>
+  <si>
+    <t>Looked Healthy</t>
+  </si>
+  <si>
+    <t>Collar too tight</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>3637</t>
   </si>
 </sst>
 </file>
@@ -3455,7 +3575,7 @@
     <numFmt numFmtId="169" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3541,13 +3661,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5248,7 +5361,7 @@
         <v>458</v>
       </c>
       <c r="AJ3" s="17" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -11950,8 +12063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CACE0D7-C202-416C-A799-EE712DC4F630}">
   <dimension ref="A1:AV1268"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11973,7 +12086,7 @@
     <col min="21" max="21" width="12.1640625" style="17" customWidth="1"/>
     <col min="22" max="22" width="12" style="17" customWidth="1"/>
     <col min="23" max="23" width="12.5" style="17" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="17" customWidth="1"/>
+    <col min="24" max="24" width="31.5" style="17" customWidth="1"/>
     <col min="25" max="27" width="8.6640625" style="17" customWidth="1"/>
     <col min="28" max="35" width="9.5" style="17" customWidth="1"/>
     <col min="36" max="36" width="8.6640625" style="17"/>
@@ -12040,7 +12153,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="54" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="R1" s="54" t="s">
         <v>14</v>
@@ -12170,45 +12283,113 @@
         <v>307</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>459</v>
+        <v>470</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2</v>
       </c>
       <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>4</v>
+      </c>
+      <c r="R2" s="17">
+        <v>5</v>
+      </c>
+      <c r="S2" s="17">
+        <v>6</v>
+      </c>
+      <c r="T2" s="17">
         <v>7</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2" s="17">
-        <v>1</v>
+      <c r="U2" s="17">
+        <v>8</v>
+      </c>
+      <c r="V2" s="17">
+        <v>9</v>
+      </c>
+      <c r="W2" s="17">
+        <v>10</v>
+      </c>
+      <c r="X2" s="17">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="17">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="17">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="17">
+        <v>22</v>
       </c>
       <c r="AJ2" s="38">
         <f>SUM(N2:AI2)</f>
-        <v>8</v>
+        <v>253</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="17">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AN2" s="17">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AO2" s="17">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AP2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="AQ2" s="17">
-        <v>1200</v>
+        <v>26</v>
       </c>
       <c r="AR2" s="37" t="s">
         <v>162</v>
       </c>
       <c r="AS2" s="37">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AT2" s="37" t="s">
         <v>245</v>
       </c>
       <c r="AU2" s="35" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
@@ -12225,16 +12406,16 @@
         <v>43540</v>
       </c>
       <c r="E3" s="60">
-        <v>0.47222222222222227</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F3" s="16">
         <v>11</v>
       </c>
       <c r="G3" s="70">
-        <v>486419</v>
+        <v>493420</v>
       </c>
       <c r="H3" s="70">
-        <v>5596947</v>
+        <v>5589668</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>54</v>
@@ -12244,277 +12425,182 @@
       <c r="L3" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="M3" s="35"/>
+      <c r="M3" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="N3" s="17">
+        <v>1</v>
+      </c>
+      <c r="O3" s="17">
+        <v>2</v>
+      </c>
       <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3"/>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>4</v>
+      </c>
+      <c r="R3" s="17">
+        <v>5</v>
+      </c>
+      <c r="S3" s="17">
+        <v>6</v>
+      </c>
+      <c r="T3" s="17">
+        <v>7</v>
+      </c>
+      <c r="U3" s="17">
+        <v>8</v>
+      </c>
+      <c r="V3" s="17">
+        <v>9</v>
+      </c>
+      <c r="W3" s="17">
+        <v>10</v>
+      </c>
+      <c r="X3" s="17">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="17">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="17">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>22</v>
+      </c>
       <c r="AJ3" s="38">
-        <f t="shared" ref="AJ3:AJ7" si="0">SUM(N3:AI3)</f>
-        <v>2</v>
+        <f>SUM(N3:AI3)</f>
+        <v>253</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>23</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AN3" s="17">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AO3" s="17">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AP3" s="17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AQ3" s="17">
-        <v>1200</v>
+        <v>26</v>
       </c>
       <c r="AR3" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS3" s="37"/>
+        <v>162</v>
+      </c>
+      <c r="AS3" s="37">
+        <v>27</v>
+      </c>
       <c r="AT3" s="37" t="s">
         <v>245</v>
       </c>
       <c r="AU3" s="35" t="s">
-        <v>461</v>
+        <v>471</v>
+      </c>
+      <c r="AV3" s="17" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" s="69">
-        <v>43540</v>
-      </c>
-      <c r="E4" s="60">
-        <v>0.5493055555555556</v>
-      </c>
-      <c r="F4" s="16">
-        <v>11</v>
-      </c>
-      <c r="G4" s="70">
-        <v>468499</v>
-      </c>
-      <c r="H4" s="70">
-        <v>5609482</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
-      <c r="L4" s="17" t="s">
-        <v>307</v>
-      </c>
       <c r="M4" s="35"/>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AN4" s="17">
-        <v>10</v>
-      </c>
-      <c r="AO4" s="17">
-        <v>100</v>
-      </c>
-      <c r="AP4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ4" s="17">
-        <v>1220</v>
-      </c>
-      <c r="AR4" s="37" t="s">
-        <v>162</v>
-      </c>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="AJ4" s="38"/>
+      <c r="AR4" s="37"/>
       <c r="AS4" s="37"/>
-      <c r="AT4" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU4" s="35" t="s">
-        <v>462</v>
-      </c>
+      <c r="AT4" s="37"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="69">
-        <v>43541</v>
-      </c>
-      <c r="E5" s="60">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F5" s="16">
-        <v>11</v>
-      </c>
-      <c r="G5" s="70">
-        <v>447577</v>
-      </c>
-      <c r="H5" s="70">
-        <v>5581198</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="67"/>
       <c r="K5" s="67"/>
-      <c r="L5" s="17" t="s">
-        <v>307</v>
-      </c>
       <c r="M5" s="35"/>
-      <c r="P5" s="17">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AN5" s="17">
-        <v>15</v>
-      </c>
-      <c r="AO5" s="17">
-        <v>100</v>
-      </c>
-      <c r="AP5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ5" s="17">
-        <v>1400</v>
-      </c>
-      <c r="AR5" s="37" t="s">
-        <v>162</v>
-      </c>
+      <c r="AJ5" s="38"/>
+      <c r="AR5" s="37"/>
       <c r="AS5" s="37"/>
-      <c r="AT5" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU5" s="35" t="s">
-        <v>463</v>
-      </c>
+      <c r="AT5" s="37"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="69">
-        <v>43541</v>
-      </c>
-      <c r="E6" s="60">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="F6" s="16">
-        <v>11</v>
-      </c>
-      <c r="G6" s="70">
-        <v>469471</v>
-      </c>
-      <c r="H6" s="70">
-        <v>5597271</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="67"/>
       <c r="K6" s="67"/>
-      <c r="L6" s="17" t="s">
-        <v>307</v>
-      </c>
       <c r="M6" s="35"/>
-      <c r="P6" s="17">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AN6" s="17">
-        <v>30</v>
-      </c>
-      <c r="AO6" s="17">
-        <v>100</v>
-      </c>
-      <c r="AP6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ6" s="17">
-        <v>1420</v>
-      </c>
-      <c r="AR6" s="37" t="s">
-        <v>162</v>
-      </c>
+      <c r="AJ6" s="38"/>
+      <c r="AR6" s="37"/>
       <c r="AS6" s="37"/>
-      <c r="AT6" s="37" t="s">
-        <v>245</v>
-      </c>
+      <c r="AT6" s="37"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="69">
-        <v>43541</v>
-      </c>
-      <c r="E7" s="60">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="F7" s="16">
-        <v>11</v>
-      </c>
-      <c r="G7" s="70">
-        <v>459477</v>
-      </c>
-      <c r="H7" s="70">
-        <v>5562414</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="67"/>
       <c r="K7" s="67"/>
-      <c r="L7" s="17" t="s">
-        <v>307</v>
-      </c>
       <c r="M7" s="35"/>
-      <c r="AJ7" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="17" t="s">
-        <v>292</v>
-      </c>
+      <c r="AJ7" s="38"/>
       <c r="AR7" s="37"/>
       <c r="AS7" s="37"/>
       <c r="AT7" s="37"/>
@@ -22771,7 +22857,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22832,7 +22918,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B2" s="19">
         <v>43540</v>
@@ -22841,13 +22927,13 @@
         <v>210</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G2" s="17">
         <v>114.34</v>
@@ -22856,32 +22942,61 @@
         <v>248</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>264</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>268</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="19"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="A3" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="19">
+        <v>43540</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="G3" s="17">
+        <v>114.34</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
@@ -24100,7 +24215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140DC94C-4EF0-4083-987B-904F7F00646B}">
   <dimension ref="A1:AC594"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -24250,7 +24365,7 @@
       <c r="J2" s="68"/>
       <c r="K2" s="68"/>
       <c r="L2" s="30" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="M2" s="30">
         <v>1</v>
@@ -24276,7 +24391,7 @@
       </c>
       <c r="AB2" s="35"/>
       <c r="AC2" s="17" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -24310,7 +24425,7 @@
       <c r="J3" s="68"/>
       <c r="K3" s="68"/>
       <c r="L3" s="30" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="39"/>
@@ -24331,10 +24446,10 @@
         <v>1</v>
       </c>
       <c r="AB3" s="35" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">

--- a/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/Central Selkirks Caribou_Aerial_Population_Total_Count_Recuit_Comp_Survey_1.0.xlsx
+++ b/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/Central Selkirks Caribou_Aerial_Population_Total_Count_Recuit_Comp_Survey_1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anissa/DevelopmentProjects/biohubbc-utils/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89330664-A8C4-D647-B196-D2857758A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913F7C82-4A1F-8948-A719-FAD82268267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-20580" windowWidth="32880" windowHeight="15880" tabRatio="672" activeTab="1" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
+    <workbookView xWindow="-23040" yWindow="-20960" windowWidth="32880" windowHeight="15880" tabRatio="672" activeTab="2" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Effort &amp; Site Conditions" sheetId="2" r:id="rId1"/>
@@ -2129,7 +2129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="476">
   <si>
     <t>Date</t>
   </si>
@@ -3554,9 +3554,6 @@
   </si>
   <si>
     <t>def</t>
-  </si>
-  <si>
-    <t>ghi</t>
   </si>
   <si>
     <t>3637</t>
@@ -12063,7 +12060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CACE0D7-C202-416C-A799-EE712DC4F630}">
   <dimension ref="A1:AV1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -22856,8 +22853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF3CD49-E68C-4938-B6DF-730C6EE1AE50}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22959,7 +22956,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B3" s="19">
         <v>43540</v>
@@ -22968,7 +22965,7 @@
         <v>210</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>460</v>

--- a/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/Central Selkirks Caribou_Aerial_Population_Total_Count_Recuit_Comp_Survey_1.0.xlsx
+++ b/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/Central Selkirks Caribou_Aerial_Population_Total_Count_Recuit_Comp_Survey_1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anissa/DevelopmentProjects/biohubbc-utils/sims/src/observations/caribou/aerial-population-total-count-recruitment-composition-survey/2.1/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913F7C82-4A1F-8948-A719-FAD82268267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F38AED-3405-8F4E-BA79-48D67B76D877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="-20960" windowWidth="32880" windowHeight="15880" tabRatio="672" activeTab="2" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
+    <workbookView xWindow="-21400" yWindow="-20960" windowWidth="32880" windowHeight="15880" tabRatio="672" activeTab="1" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Effort &amp; Site Conditions" sheetId="2" r:id="rId1"/>
@@ -662,18 +662,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The longitude of the observation in </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The longitude of the observation in </t>
         </r>
         <r>
           <rPr>
             <u/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -682,7 +691,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -692,7 +701,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -701,12 +710,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.
-INSTRUCTIONS: No need to enter Lat/Long coordinates if UTM coordinates are provided.</t>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INSTRUCTIONS: No need to enter Lat/Long coordinates if UTM coordinates are provided.</t>
         </r>
       </text>
     </comment>
@@ -2129,7 +2157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="476">
   <si>
     <t>Date</t>
   </si>
@@ -3572,7 +3600,7 @@
     <numFmt numFmtId="169" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3660,6 +3688,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -12060,8 +12102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CACE0D7-C202-416C-A799-EE712DC4F630}">
   <dimension ref="A1:AV1268"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12259,8 +12301,8 @@
       <c r="D2" s="69">
         <v>43540</v>
       </c>
-      <c r="E2" s="60">
-        <v>0.45833333333333331</v>
+      <c r="E2" s="60" t="s">
+        <v>470</v>
       </c>
       <c r="F2" s="16">
         <v>11</v>
@@ -22853,7 +22895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF3CD49-E68C-4938-B6DF-730C6EE1AE50}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
